--- a/person/杨小云/用户故事.xlsx
+++ b/person/杨小云/用户故事.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2019\软件工程\software-engineering\person\杨小云\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C8A4A4-9ACA-4758-95BB-4F378BFB60F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE613D9E-85AA-4088-9A7F-FBCA3053F06C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="740" windowWidth="14400" windowHeight="7360" xr2:uid="{3DD955AD-9547-46ED-AD1B-260F521EB318}"/>
+    <workbookView xWindow="860" yWindow="100" windowWidth="14400" windowHeight="10100" xr2:uid="{3DD955AD-9547-46ED-AD1B-260F521EB318}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -999,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AC524D-1589-4B01-8002-A6004E64F212}">
   <dimension ref="B2:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1136,7 +1136,7 @@
         <v>36</v>
       </c>
       <c r="J6" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" s="28">
         <v>96</v>
@@ -1177,7 +1177,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K7" s="28">
         <v>98</v>
@@ -1329,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>18</v>
@@ -1372,7 +1372,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>18</v>
@@ -1415,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>18</v>
@@ -1433,7 +1433,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K13" s="28">
         <v>95</v>
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="24" t="s">
         <v>18</v>
@@ -1501,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="25" t="s">
         <v>18</v>
